--- a/transfer/release/0623/CRQ000000201865/Test Cases_income-v2.09.350_CRQ000000201865.xlsx
+++ b/transfer/release/0623/CRQ000000201865/Test Cases_income-v2.09.350_CRQ000000201865.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zagroup-my.sharepoint.com/personal/dan_jiang_zatech_com/Documents/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\income-configuration-changelog\Deploy-Income\2021\0623\CRQ000000201865\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{73BE80BA-F430-491A-BBB8-95D9D3533664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CBAD653-69EA-4E82-9D7E-582B02C32932}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9B4C24-CE49-487E-919A-43D10D2BFDA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="7" xr2:uid="{65442C23-CE3D-47B8-B469-F213426221FD}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="17717" windowHeight="9606" firstSheet="8" activeTab="9" xr2:uid="{65442C23-CE3D-47B8-B469-F213426221FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="questionlist_and_UW_same_upsize" sheetId="7" r:id="rId7"/>
     <sheet name="questionlist_and_UW_diff_redeem" sheetId="8" r:id="rId8"/>
     <sheet name="questionlist_and_UW_diff_upsize" sheetId="9" r:id="rId9"/>
-    <sheet name="redeem" sheetId="10" r:id="rId10"/>
-    <sheet name="upsize" sheetId="11" r:id="rId11"/>
+    <sheet name="redeem_Non_Smoker" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>测试数据：SNACK.478966@zatech.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,79 +60,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试数据：SNACK.903880@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：304T1706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据：SNACK.161344@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：831D1706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据：SNACK.183952@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：640V1706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据：SNACK.448651@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：068S1706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNACK.002430@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003D1706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPSIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据：SNACK.721123@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：191T1706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：977L1706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据：SNACK.737029@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据：SNACK.632126@zatech.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password：390N1706</t>
+    <t>测试数据：SNACK.325888@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：578J1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.570799@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：108N1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.119806@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：518S1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.130238@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：661Y1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.753915@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：166H1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.935927@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：715O1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.461481@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：299P1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.260532@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：903H1706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据：SNACK.460931@zatech.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password：021W1706</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,15 +147,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -184,25 +170,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -310,6 +289,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516305</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>72438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A550A98B-8A16-429E-A7C9-04F24C33A8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="533400"/>
+          <a:ext cx="9761905" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103524</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>40648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB371B2-CDCE-4B32-8381-5AA502E5B7D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6578600"/>
+          <a:ext cx="10009524" cy="5019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -320,17 +392,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>427333</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD72D77C-D246-4ACB-8C50-A223F8B0625F}"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>649638</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1D9F3D-D6AA-4367-9B8D-EA9ED472B636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -347,7 +419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="355600"/>
-          <a:ext cx="10333333" cy="5476190"/>
+          <a:ext cx="9895238" cy="5152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -360,21 +432,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198762</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>97790</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010052C0-5422-4887-9952-B50BFF4470B2}"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411543</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>120124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBDE7FF-A4C4-4B79-AEE6-1D113714CD00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -390,8 +462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6578600"/>
-          <a:ext cx="10104762" cy="5076190"/>
+          <a:off x="0" y="6756400"/>
+          <a:ext cx="9657143" cy="4209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,192 +476,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>71695</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>120057</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2145C7-AD52-4AF8-9F0D-219111EDBAEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13157200"/>
-          <a:ext cx="10638095" cy="4742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>560667</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>135886</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3A4DCF-81FA-41F4-9854-F4A1037A2071}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="19024600"/>
-          <a:ext cx="10466667" cy="5114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>197777</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF5F6FC-9996-4A19-AB51-AD77C5DCFEB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="82550" y="1047751"/>
-          <a:ext cx="8700427" cy="4997450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>185981</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>142190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E6D90A-08F0-4DCA-B0DB-F3412353F582}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6578600"/>
-          <a:ext cx="10752381" cy="5476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -599,61 +485,61 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>62171</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>186228</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8D9C7C-DA76-412B-83D6-9F7B018F313A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="711200"/>
+          <a:ext cx="8771428" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>69152</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E729D97-77D3-48B1-A853-A659C68BF349}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="711200"/>
-          <a:ext cx="10628571" cy="5580952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>313048</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>88267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6E103B-40FB-4F62-AF28-3D45BCE5ECE0}"/>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646628</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>75524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD886C4-B6E6-41EF-92DC-3914CDFB7733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,8 +555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7112000"/>
-          <a:ext cx="10219048" cy="5066667"/>
+          <a:off x="0" y="6223000"/>
+          <a:ext cx="8571428" cy="5409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,7 +568,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -692,17 +578,110 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306781</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23555E9-661D-4F37-A69A-2550F433D647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="533400"/>
+          <a:ext cx="9552381" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>446381</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>8857</xdr:rowOff>
+      <xdr:colOff>122571</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>78745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A81759-C8C6-4F3B-A1E0-E542619413A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6775450"/>
+          <a:ext cx="10028571" cy="5038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579962</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377B804A-AE88-4414-9184-652AB5A83F48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05424FA6-A581-438F-B71B-6F4728A8D992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -718,8 +697,101 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="711200"/>
+          <a:ext cx="8504762" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297352</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>177088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267644A-045C-46FF-B5C9-83F462A13E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="7283450"/>
+          <a:ext cx="8780952" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398762</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C6BA6C-4BE5-4F8B-A53A-CCB4575FFD7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="533400"/>
-          <a:ext cx="10352381" cy="5342857"/>
+          <a:ext cx="10304762" cy="5104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,21 +804,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>465428</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>5705</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC660166-B230-445F-9582-FC9972C22FDD}"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>230590</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FFF4B2-5091-4370-827B-D76D4B537A89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -762,8 +834,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6578600"/>
-          <a:ext cx="10371428" cy="5161905"/>
+          <a:off x="0" y="6934200"/>
+          <a:ext cx="9476190" cy="4523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,6 +849,143 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>621067</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D12A300-B168-4287-94FD-616C57A11C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="533400"/>
+          <a:ext cx="9866667" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65428</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>69286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8FCE43-43BD-4429-92BF-BADD48739CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6756400"/>
+          <a:ext cx="9971428" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246381</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B80B1E6-5A19-4B97-B2B0-AA0A43C6E373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="355600"/>
+          <a:ext cx="10152381" cy="4228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -785,26 +994,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>265428</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>129514</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411543</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F6827E-6B81-41A5-B765-D173CB9D1A49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8551E520-719B-44D4-9DC4-2F48D93C95EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -812,144 +1021,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6400800"/>
-          <a:ext cx="10171428" cy="5285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>474952</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>78743</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8A51BE-4766-4E20-855F-738BF658EE9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1244600"/>
-          <a:ext cx="10380952" cy="5057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>398762</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>113686</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478F2656-67B5-4492-A80A-5CE4A3CD1F5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="711200"/>
-          <a:ext cx="10304762" cy="4914286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52648</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>50171</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5E147F-2720-42C3-812F-329CDA15157A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6400800"/>
-          <a:ext cx="10619048" cy="5028571"/>
+          <a:ext cx="9657143" cy="4885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -972,16 +1044,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>65428</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97857</xdr:rowOff>
+      <xdr:colOff>170190</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC15E745-CCC9-415D-9994-905EEA02F477}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB4884A-4E7E-4DF2-8B84-8D13F2360310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,7 +1070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="533400"/>
-          <a:ext cx="9971428" cy="4542857"/>
+          <a:ext cx="10076190" cy="5247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1011,21 +1083,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>24076</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>75590</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>87733</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>62914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70ABE462-79CB-4D36-8B2C-5F063BC01AF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDF6D12-F754-4A0C-958B-B9FC714AF584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1041,8 +1113,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5511800"/>
-          <a:ext cx="10590476" cy="4876190"/>
+          <a:off x="0" y="6934200"/>
+          <a:ext cx="9333333" cy="4685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,7 +1127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1353,31 +1425,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F447C7-FD9E-40D7-BFD2-47571D36A903}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="52.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1391,71 +1463,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E45B273-3C52-4A4D-BF7E-9CB877C18428}">
-  <dimension ref="A1:A2"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{95D90625-64CB-4B0F-822E-EF377D670029}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB79B74-4F61-42FB-9C97-DB629B5D83A4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E68711F-6DB2-4692-9C54-B7495F919782}">
-  <dimension ref="A1:A36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1466,32 +1496,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6DF9CB-6F69-44C7-A36C-4B48E67CC4C0}">
-  <dimension ref="A1:A73"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E68711F-6DB2-4692-9C54-B7495F919782}">
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1501,27 +1528,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6DF9CB-6F69-44C7-A36C-4B48E67CC4C0}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54276377-569D-44FE-9DD1-D53DC96ACE1F}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1535,26 +1595,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633BC645-30B8-4C25-B0CC-3550DDE25AFD}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1567,122 +1632,127 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AF8A10-126A-4E1D-AE8F-1AC81C133525}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF5F304-2CA1-4765-8812-1B2703BDBD6B}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39745F7D-E805-4DA9-8C43-FA1D01699FC6}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5CB898-00B1-416B-A1E9-1C666A91DC69}">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF5F304-2CA1-4765-8812-1B2703BDBD6B}">
-  <dimension ref="A1:A33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39745F7D-E805-4DA9-8C43-FA1D01699FC6}">
-  <dimension ref="A1:A34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5CB898-00B1-416B-A1E9-1C666A91DC69}">
-  <dimension ref="A1:A31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1690,5 +1760,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>